--- a/Others/STOPWORDS.xlsx
+++ b/Others/STOPWORDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\SiteAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\YouTubeExtract\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA26C397-CAD4-4480-B806-42D14E069BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A581BE-AE1D-4482-9AE1-66A4E6D8A5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>para</t>
   </si>
@@ -103,6 +103,57 @@
   </si>
   <si>
     <t>eles</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>Jovem Pan</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>cnn</t>
+  </si>
+  <si>
+    <t>Jornal</t>
+  </si>
+  <si>
+    <t>jornal</t>
+  </si>
+  <si>
+    <t>notícias</t>
+  </si>
+  <si>
+    <t>Notícias</t>
+  </si>
+  <si>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>Jovem</t>
+  </si>
+  <si>
+    <t>pilulajornaldamanha</t>
+  </si>
+  <si>
+    <t>manhã</t>
+  </si>
+  <si>
+    <t>Manhã</t>
   </si>
 </sst>
 </file>
@@ -420,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +609,91 @@
         <v>21</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A26">
     <sortCondition ref="A1:A26"/>
